--- a/skill_list.xlsx
+++ b/skill_list.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="方陣" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ＥＸ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="バハ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="163">
   <si>
     <t>火の攻刃</t>
   </si>
@@ -772,24 +773,7 @@
     <t>セービングアタック</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>スキル</t>
-    </r>
+    <t>Vスキル</t>
   </si>
   <si>
     <t>その魂よ、安らかに</t>
@@ -811,6 +795,63 @@
   </si>
   <si>
     <t>インテリジェンス</t>
+  </si>
+  <si>
+    <t>ヒュムアニムス・ウィス</t>
+  </si>
+  <si>
+    <t>baha</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>ドーラアニムス・ウィス</t>
+  </si>
+  <si>
+    <t>エルンアニムス・ウィス</t>
+  </si>
+  <si>
+    <t>ハヴンアニムス・ウィス</t>
+  </si>
+  <si>
+    <t>コンキリオ・ルーベル</t>
+  </si>
+  <si>
+    <t>hpatk</t>
+  </si>
+  <si>
+    <t>コンキリオ・ケルレウス</t>
+  </si>
+  <si>
+    <t>コンキリオ・イグニス</t>
+  </si>
+  <si>
+    <t>コンキリオ・ウェントス</t>
+  </si>
+  <si>
+    <t>コンキリオ・コルヌ</t>
+  </si>
+  <si>
+    <t>コンキリオ・テラ</t>
+  </si>
+  <si>
+    <t>コンキリオ・インベル</t>
+  </si>
+  <si>
+    <t>コンキリオ・アルボス</t>
+  </si>
+  <si>
+    <t>ヒュムアニムス・メンス</t>
+  </si>
+  <si>
+    <t>ドーラアニムス・メンス</t>
+  </si>
+  <si>
+    <t>エルンアニムス・メンス</t>
+  </si>
+  <si>
+    <t>ハヴンアニムス・メンス</t>
   </si>
 </sst>
 </file>
@@ -820,7 +861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -844,6 +885,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -894,7 +941,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -903,7 +950,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,24 +977,24 @@
   </sheetPr>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9431818181818"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3693181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="14.1306818181818"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.9488636363636"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="14.1306818181818"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.2954545454545"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="14.1306818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -954,10 +1005,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -968,10 +1019,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -982,10 +1033,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -996,10 +1047,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1010,10 +1061,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1024,10 +1075,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1038,10 +1089,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1052,10 +1103,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1066,10 +1117,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1080,10 +1131,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1094,10 +1145,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1108,10 +1159,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1122,10 +1173,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1136,10 +1187,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1150,10 +1201,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1164,10 +1215,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1178,10 +1229,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1191,11 +1242,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1205,11 +1256,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1219,11 +1270,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1233,11 +1284,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1247,11 +1298,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1261,11 +1312,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1276,10 +1327,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1290,10 +1341,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1304,10 +1355,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1318,10 +1369,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1332,10 +1383,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1346,10 +1397,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1360,10 +1411,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1374,10 +1425,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1388,10 +1439,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1402,10 +1453,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1416,10 +1467,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1430,10 +1481,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1444,10 +1495,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1458,10 +1509,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1472,10 +1523,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1486,10 +1537,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1500,10 +1551,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1514,10 +1565,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1528,10 +1579,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1542,10 +1593,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1556,10 +1607,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1570,10 +1621,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1584,10 +1635,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1598,10 +1649,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1612,10 +1663,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1626,10 +1677,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1640,10 +1691,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1654,10 +1705,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1668,10 +1719,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1682,10 +1733,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1696,10 +1747,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1710,10 +1761,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1724,10 +1775,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1738,10 +1789,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1752,10 +1803,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1766,10 +1817,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1780,10 +1831,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1794,10 +1845,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1808,10 +1859,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1822,10 +1873,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1836,10 +1887,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1850,10 +1901,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1864,10 +1915,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1878,10 +1929,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1892,10 +1943,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1906,10 +1957,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1920,10 +1971,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1934,10 +1985,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1966,21 +2017,21 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6931818181818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.18181818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5965909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.5625"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="14.1306818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1991,10 +2042,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2005,10 +2056,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2019,10 +2070,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2033,10 +2084,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2047,10 +2098,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2060,11 +2111,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2074,11 +2125,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2088,11 +2139,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2102,11 +2153,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2116,11 +2167,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2130,11 +2181,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2145,10 +2196,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2159,10 +2210,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2173,10 +2224,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2187,10 +2238,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2201,10 +2252,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2215,10 +2266,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2228,11 +2279,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2242,11 +2293,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2256,11 +2307,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2270,11 +2321,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2284,11 +2335,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2298,11 +2349,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2313,10 +2364,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2327,10 +2378,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2341,10 +2392,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2355,10 +2406,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2369,10 +2420,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2383,10 +2434,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2397,10 +2448,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2411,10 +2462,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2425,10 +2476,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2439,10 +2490,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2453,10 +2504,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2467,10 +2518,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2481,10 +2532,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2495,10 +2546,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2509,10 +2560,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2523,10 +2574,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2537,10 +2588,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2551,10 +2602,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2567,7 +2618,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2583,173 +2634,394 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6931818181818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.18181818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5965909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.5625"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="14.1306818181818"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5965909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.5625"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="14.1306818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
+      <c r="A1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
+      <c r="A8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
+      <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
+      <c r="A10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
+      <c r="A12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
